--- a/FinalProjectData.xlsx
+++ b/FinalProjectData.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$1:$I$100</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="451">
   <si>
     <t>Donor1</t>
   </si>
@@ -993,6 +996,387 @@
   </si>
   <si>
     <t>1234551890</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Framingham</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>1234567940</t>
+  </si>
+  <si>
+    <t>1234567941</t>
+  </si>
+  <si>
+    <t>1234567942</t>
+  </si>
+  <si>
+    <t>1234567943</t>
+  </si>
+  <si>
+    <t>1234567944</t>
+  </si>
+  <si>
+    <t>1234567945</t>
+  </si>
+  <si>
+    <t>1234567946</t>
+  </si>
+  <si>
+    <t>1234567947</t>
+  </si>
+  <si>
+    <t>1234567948</t>
+  </si>
+  <si>
+    <t>1234567949</t>
+  </si>
+  <si>
+    <t>1234567950</t>
+  </si>
+  <si>
+    <t>1234567951</t>
+  </si>
+  <si>
+    <t>1234567952</t>
+  </si>
+  <si>
+    <t>1234567953</t>
+  </si>
+  <si>
+    <t>1234567954</t>
+  </si>
+  <si>
+    <t>1234567955</t>
+  </si>
+  <si>
+    <t>1234567956</t>
+  </si>
+  <si>
+    <t>1234567957</t>
+  </si>
+  <si>
+    <t>1234567958</t>
+  </si>
+  <si>
+    <t>1234567959</t>
+  </si>
+  <si>
+    <t>1234567960</t>
+  </si>
+  <si>
+    <t>1234567961</t>
+  </si>
+  <si>
+    <t>1234567962</t>
+  </si>
+  <si>
+    <t>1234567963</t>
+  </si>
+  <si>
+    <t>1234567964</t>
+  </si>
+  <si>
+    <t>1234567965</t>
+  </si>
+  <si>
+    <t>1234567966</t>
+  </si>
+  <si>
+    <t>1234567967</t>
+  </si>
+  <si>
+    <t>1234567968</t>
+  </si>
+  <si>
+    <t>1234567969</t>
+  </si>
+  <si>
+    <t>1234567970</t>
+  </si>
+  <si>
+    <t>1234567971</t>
+  </si>
+  <si>
+    <t>1234567972</t>
+  </si>
+  <si>
+    <t>1234567973</t>
+  </si>
+  <si>
+    <t>1234567974</t>
+  </si>
+  <si>
+    <t>1234567975</t>
+  </si>
+  <si>
+    <t>1234567976</t>
+  </si>
+  <si>
+    <t>1234567977</t>
+  </si>
+  <si>
+    <t>1234567978</t>
+  </si>
+  <si>
+    <t>1234567979</t>
+  </si>
+  <si>
+    <t>1234567980</t>
+  </si>
+  <si>
+    <t>1234567981</t>
+  </si>
+  <si>
+    <t>1234567982</t>
+  </si>
+  <si>
+    <t>1234567983</t>
+  </si>
+  <si>
+    <t>1234567984</t>
+  </si>
+  <si>
+    <t>1234567985</t>
+  </si>
+  <si>
+    <t>1234567986</t>
+  </si>
+  <si>
+    <t>1234567987</t>
+  </si>
+  <si>
+    <t>1234567988</t>
+  </si>
+  <si>
+    <t>1234567989</t>
+  </si>
+  <si>
+    <t>1234567990</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>01/12/2011</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>12/01/2011</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>12/15/2011</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>12/30/2011</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
   </si>
 </sst>
 </file>
@@ -1389,22 +1773,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="3" max="3" width="8.77734375" style="3"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
@@ -1500,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -1580,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>171</v>
       </c>
@@ -1660,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>172</v>
       </c>
@@ -1740,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>173</v>
       </c>
@@ -1824,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>174</v>
       </c>
@@ -1904,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>175</v>
       </c>
@@ -1988,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>176</v>
       </c>
@@ -2068,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>177</v>
       </c>
@@ -2152,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
@@ -2236,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>179</v>
       </c>
@@ -2316,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>180</v>
       </c>
@@ -2396,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>181</v>
       </c>
@@ -2480,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>182</v>
       </c>
@@ -2560,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>183</v>
       </c>
@@ -2640,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>184</v>
       </c>
@@ -2720,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>185</v>
       </c>
@@ -2800,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>186</v>
       </c>
@@ -2880,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>187</v>
       </c>
@@ -2960,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>188</v>
       </c>
@@ -3040,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>189</v>
       </c>
@@ -3124,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>190</v>
       </c>
@@ -3204,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>191</v>
       </c>
@@ -3292,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>192</v>
       </c>
@@ -3380,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
@@ -3466,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>194</v>
       </c>
@@ -3546,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>195</v>
       </c>
@@ -3626,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>196</v>
       </c>
@@ -3706,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>197</v>
       </c>
@@ -3790,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>198</v>
       </c>
@@ -3870,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>199</v>
       </c>
@@ -3950,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>200</v>
       </c>
@@ -4034,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>201</v>
       </c>
@@ -4118,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>202</v>
       </c>
@@ -4202,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>203</v>
       </c>
@@ -4282,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>204</v>
       </c>
@@ -4362,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>205</v>
       </c>
@@ -4442,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -4522,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>207</v>
       </c>
@@ -4602,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>208</v>
       </c>
@@ -4686,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>209</v>
       </c>
@@ -4766,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>210</v>
       </c>
@@ -4850,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>211</v>
       </c>
@@ -4930,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>212</v>
       </c>
@@ -5010,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>213</v>
       </c>
@@ -5090,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>214</v>
       </c>
@@ -5178,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>215</v>
       </c>
@@ -5258,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>216</v>
       </c>
@@ -5342,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>217</v>
       </c>
@@ -5422,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>218</v>
       </c>
@@ -5573,25 +5957,30 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="T4" sqref="T4:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="8.7265625" style="3"/>
-    <col min="10" max="10" width="8.7265625" style="3"/>
-    <col min="12" max="12" width="8.7265625" style="3"/>
-    <col min="14" max="14" width="8.7265625" style="3"/>
-    <col min="15" max="15" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="3" width="8.77734375" style="3"/>
+    <col min="4" max="5" width="8.88671875"/>
+    <col min="6" max="6" width="8.77734375" style="3"/>
+    <col min="7" max="7" width="8.88671875"/>
+    <col min="8" max="8" width="8.77734375" style="3"/>
+    <col min="9" max="9" width="8.88671875"/>
+    <col min="10" max="10" width="8.77734375" style="3"/>
+    <col min="11" max="11" width="8.88671875"/>
+    <col min="12" max="12" width="8.77734375" style="3"/>
+    <col min="13" max="13" width="8.88671875"/>
+    <col min="14" max="14" width="8.77734375" style="3"/>
+    <col min="15" max="15" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
@@ -5656,7 +6045,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
@@ -5697,7 +6086,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -5735,7 +6124,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>172</v>
       </c>
@@ -5773,7 +6162,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>173</v>
       </c>
@@ -5817,7 +6206,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>174</v>
       </c>
@@ -5855,7 +6244,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>175</v>
       </c>
@@ -5899,7 +6288,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>176</v>
       </c>
@@ -5937,7 +6326,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>177</v>
       </c>
@@ -5981,7 +6370,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>178</v>
       </c>
@@ -6025,7 +6414,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -6063,7 +6452,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -6101,7 +6490,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
@@ -6145,7 +6534,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>182</v>
       </c>
@@ -6183,7 +6572,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>183</v>
       </c>
@@ -6221,7 +6610,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
@@ -6259,7 +6648,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -6297,7 +6686,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>186</v>
       </c>
@@ -6335,7 +6724,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>187</v>
       </c>
@@ -6373,7 +6762,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>188</v>
       </c>
@@ -6411,7 +6800,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>189</v>
       </c>
@@ -6455,7 +6844,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>190</v>
       </c>
@@ -6493,7 +6882,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>191</v>
       </c>
@@ -6543,7 +6932,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>192</v>
       </c>
@@ -6593,7 +6982,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>193</v>
       </c>
@@ -6637,7 +7026,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>194</v>
       </c>
@@ -6675,7 +7064,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>195</v>
       </c>
@@ -6713,7 +7102,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>196</v>
       </c>
@@ -6751,7 +7140,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>197</v>
       </c>
@@ -6795,7 +7184,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>198</v>
       </c>
@@ -6833,7 +7222,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>199</v>
       </c>
@@ -6871,7 +7260,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>200</v>
       </c>
@@ -6915,7 +7304,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>201</v>
       </c>
@@ -6959,7 +7348,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>202</v>
       </c>
@@ -7003,7 +7392,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>203</v>
       </c>
@@ -7041,7 +7430,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>204</v>
       </c>
@@ -7079,7 +7468,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>205</v>
       </c>
@@ -7117,7 +7506,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>206</v>
       </c>
@@ -7155,7 +7544,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>207</v>
       </c>
@@ -7193,7 +7582,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>208</v>
       </c>
@@ -7237,7 +7626,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>209</v>
       </c>
@@ -7272,7 +7661,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>210</v>
       </c>
@@ -7313,7 +7702,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>211</v>
       </c>
@@ -7351,7 +7740,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>212</v>
       </c>
@@ -7389,7 +7778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>213</v>
       </c>
@@ -7427,7 +7816,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>214</v>
       </c>
@@ -7471,7 +7860,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -7509,7 +7898,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>216</v>
       </c>
@@ -7553,7 +7942,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>217</v>
       </c>
@@ -7591,7 +7980,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>218</v>
       </c>
@@ -7694,1388 +8083,4423 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="13" max="15" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F10" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F30" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F33" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F46" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="F60" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="I61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="F67" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="I70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="F71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="I74" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="F77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="I77" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="F78" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="I78" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F81" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F88" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="F94" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E95" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F98" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44">
-        <v>23</v>
-      </c>
-      <c r="D44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48">
-        <v>45</v>
-      </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52">
-        <v>45</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53">
-        <v>42</v>
-      </c>
-      <c r="D53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55">
-        <v>19</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57">
-        <v>19</v>
-      </c>
-      <c r="D57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60">
-        <v>45</v>
-      </c>
-      <c r="D60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61">
-        <v>42</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63">
-        <v>19</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64">
-        <v>45</v>
-      </c>
-      <c r="D64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65">
-        <v>42</v>
-      </c>
-      <c r="D65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67">
-        <v>19</v>
-      </c>
-      <c r="D67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69">
-        <v>42</v>
-      </c>
-      <c r="D69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70">
-        <v>23</v>
-      </c>
-      <c r="D70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71">
-        <v>19</v>
-      </c>
-      <c r="D71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72">
-        <v>19</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73">
-        <v>59</v>
-      </c>
-      <c r="D73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74">
-        <v>45</v>
-      </c>
-      <c r="D74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75">
-        <v>42</v>
-      </c>
-      <c r="D75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76">
-        <v>23</v>
-      </c>
-      <c r="D76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77">
-        <v>19</v>
-      </c>
-      <c r="D77" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78">
-        <v>19</v>
-      </c>
-      <c r="D78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79">
-        <v>59</v>
-      </c>
-      <c r="D79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80">
-        <v>45</v>
-      </c>
-      <c r="D80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81">
-        <v>42</v>
-      </c>
-      <c r="D81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82">
-        <v>23</v>
-      </c>
-      <c r="D82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83">
-        <v>19</v>
-      </c>
-      <c r="D83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84">
-        <v>23</v>
-      </c>
-      <c r="D84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85">
-        <v>19</v>
-      </c>
-      <c r="D85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86">
-        <v>19</v>
-      </c>
-      <c r="D86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87">
-        <v>59</v>
-      </c>
-      <c r="D87" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88">
-        <v>45</v>
-      </c>
-      <c r="D88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89">
-        <v>42</v>
-      </c>
-      <c r="D89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90">
-        <v>19</v>
-      </c>
-      <c r="D90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91">
-        <v>59</v>
-      </c>
-      <c r="D91" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92">
-        <v>45</v>
-      </c>
-      <c r="D92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94">
-        <v>19</v>
-      </c>
-      <c r="D94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95">
-        <v>23</v>
-      </c>
-      <c r="D95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96">
-        <v>19</v>
-      </c>
-      <c r="D96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>165</v>
-      </c>
-      <c r="C97">
-        <v>15</v>
-      </c>
-      <c r="D97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99">
-        <v>45</v>
-      </c>
-      <c r="D99" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>168</v>
-      </c>
-      <c r="C100">
-        <v>42</v>
-      </c>
-      <c r="D100" t="s">
-        <v>68</v>
+      <c r="F100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProjectData.xlsx
+++ b/FinalProjectData.xlsx
@@ -2146,11 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2260,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2333,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="AE2" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>77</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>78</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>79</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>80</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>81</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>82</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>84</v>
       </c>
@@ -3459,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="AE16" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>86</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>87</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>91</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>94</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>95</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>97</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>98</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>102</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>103</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>105</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
@@ -5401,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="AE40" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>109</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>110</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>111</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>113</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="AE48" s="2" t="b">
         <v>1</v>
@@ -6134,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>118</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>126</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>216</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>217</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>218</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>219</v>
       </c>
@@ -7040,13 +7039,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE60">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="Framingham"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="R1" r:id="rId1"/>
     <hyperlink ref="R2" r:id="rId2"/>
@@ -11964,7 +11956,7 @@
         <v>137</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:E65" si="0">((A2/(B2*B2))*10000)</f>
+        <f t="shared" ref="C2:C65" si="0">((A2/(B2*B2))*10000)</f>
         <v>26.004382761139517</v>
       </c>
       <c r="E2" s="5">
@@ -12924,7 +12916,7 @@
         <v>130</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" ref="C66:E100" si="1">((A66/(B66*B66))*10000)</f>
+        <f t="shared" ref="C66:C100" si="1">((A66/(B66*B66))*10000)</f>
         <v>21.146319909102385</v>
       </c>
       <c r="E66" s="5">
